--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Rece5bf8d39d24ca6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R76648972acdf4038"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -222,7 +222,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7415fbe0fdbd4fec"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R785fca8c0d7944b7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -307,6 +307,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R915fc9bb27314291"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re40c518d4c784d53"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R76648972acdf4038"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Rd679b833ff934d8b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -222,7 +222,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R785fca8c0d7944b7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbfde7fdf02bd4e8f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -307,6 +307,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re40c518d4c784d53"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R78fd4fc27a4d4a62"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Rd679b833ff934d8b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R0c215a87dd544b73"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -222,7 +222,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbfde7fdf02bd4e8f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd178a12dfaca4189"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -307,6 +307,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R78fd4fc27a4d4a62"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0aa11786eccf4e9b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R0c215a87dd544b73"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Rcf3f97cebd794c12"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -222,7 +222,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd178a12dfaca4189"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2f0a96c00d3a43d6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -307,6 +307,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0aa11786eccf4e9b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R223662a4662242a6"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Rcf3f97cebd794c12"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Rd8df46222db344d5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -222,7 +222,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2f0a96c00d3a43d6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re21eb1c1803e4c95"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -307,6 +307,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R223662a4662242a6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R34c9b32f1342456f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Rd8df46222db344d5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R3fefc9f8ab7d44bc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -222,7 +222,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re21eb1c1803e4c95"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbc409377df714960"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -307,6 +307,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R34c9b32f1342456f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1551a518c7d449be"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R3fefc9f8ab7d44bc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R20d59fe21e4849cd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -222,7 +222,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbc409377df714960"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0057af72ffd94f79"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -307,6 +307,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1551a518c7d449be"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0a37fb0d0e1740f1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R20d59fe21e4849cd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R8a89f5d9076c4444"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -222,7 +222,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0057af72ffd94f79"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R85f5be35c7384f79"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -307,6 +307,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0a37fb0d0e1740f1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcc57d3f8858f4f17"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R8a89f5d9076c4444"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R5ac09fcbe8a64682"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -222,7 +222,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R85f5be35c7384f79"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcb4536f0d5eb4034"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -307,6 +307,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcc57d3f8858f4f17"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5d2912e89a30429a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R5ac09fcbe8a64682"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R8bb1b282897b454d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -222,7 +222,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcb4536f0d5eb4034"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R00c14f99856a48ec"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -307,6 +307,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5d2912e89a30429a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re2b0e811514b4130"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R8bb1b282897b454d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R671b85b0b0de4854"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -222,7 +222,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R00c14f99856a48ec"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re66218dcad2c47cd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -307,6 +307,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re2b0e811514b4130"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7c007ad1ea3449e3"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R671b85b0b0de4854"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Rfcf1b3492e89495b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -222,7 +222,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re66218dcad2c47cd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdb41be4377124c27"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -307,6 +307,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7c007ad1ea3449e3"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7e89d65c219b44b7"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/100_LineChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Rfcf1b3492e89495b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R101f769a9a4b4c7b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -222,7 +222,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdb41be4377124c27"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5fc326eeb956402f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -307,6 +307,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7e89d65c219b44b7"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R41914f2c74f24b8d"/>
 </x:worksheet>
 </file>